--- a/data/trans_dic/P25D_R2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R2_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0153720786180488</v>
+        <v>0.01486726239445878</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00812168942127537</v>
+        <v>0.009347584276688791</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07329247319218581</v>
+        <v>0.07227588793076442</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.009697125646073614</v>
+        <v>0.009543040957523832</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03773313458714971</v>
+        <v>0.03829613549346672</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05495361744133909</v>
+        <v>0.0549536174413391</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.01018308636225953</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.030072162683933</v>
+        <v>0.03004453596836713</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003527119449275204</v>
+        <v>0.003585017602594964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01910405123621306</v>
+        <v>0.0192314340045813</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09630266869108248</v>
+        <v>0.09378501335340747</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02433976836129176</v>
+        <v>0.02359728790582466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05338504369006875</v>
+        <v>0.05335271762304239</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004575356804952967</v>
+        <v>0.004522301364581083</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003394164489695541</v>
+        <v>0.003419638536474083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005935248427840809</v>
+        <v>0.005697001471241753</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03871492696874096</v>
+        <v>0.04186465855681547</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01935900759359886</v>
+        <v>0.01873947455005471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02362314995082046</v>
+        <v>0.02379963761879922</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007781154007202682</v>
+        <v>0.009045678576514775</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009629201201989923</v>
+        <v>0.01012326486189061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01380303557710762</v>
+        <v>0.01364885513844692</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07127440477040956</v>
+        <v>0.0726373387105857</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04862350935629147</v>
+        <v>0.04945463911464322</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04854542384777624</v>
+        <v>0.04662937979549734</v>
       </c>
     </row>
     <row r="16">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00660340158203539</v>
+        <v>0.005702594382428051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005570827464852568</v>
+        <v>0.005488189353659239</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0252105286037891</v>
+        <v>0.02912072488779225</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03151689204166165</v>
+        <v>0.03014653907591172</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02209733792365812</v>
+        <v>0.02138552036227064</v>
       </c>
     </row>
     <row r="19">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00226947729117164</v>
+        <v>0.002278611415424828</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002252110029764566</v>
+        <v>0.001614837536405528</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0156356341062766</v>
+        <v>0.01557668876017291</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02846924552362395</v>
+        <v>0.03052173428211343</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01658757976023451</v>
+        <v>0.01682864183030473</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0309270478966689</v>
+        <v>0.02951590521190008</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0197547744249306</v>
+        <v>0.02002072427923869</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02901068781468615</v>
+        <v>0.02931476181300162</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08114655558345829</v>
+        <v>0.07389386254442974</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05314559644261269</v>
+        <v>0.05606857290977879</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05873243783630237</v>
+        <v>0.05814504036792176</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.03327989607523849</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.02502245863816327</v>
+        <v>0.02502245863816326</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.02906185724929135</v>
+        <v>0.02906185724929136</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02106846134159626</v>
+        <v>0.02187080604086886</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01536264712332485</v>
+        <v>0.0156298214399547</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02151987053199404</v>
+        <v>0.02130346227201207</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04921194563703442</v>
+        <v>0.04829028241331566</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0387169796043117</v>
+        <v>0.0384970982697703</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03905909446097856</v>
+        <v>0.03912842203092621</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.03398502895526763</v>
+        <v>0.03398502895526764</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.01929981707580759</v>
+        <v>0.0192998170758076</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.02643368445029211</v>
+        <v>0.02643368445029212</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02625229712738709</v>
+        <v>0.02708753542960424</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01499605300007515</v>
+        <v>0.01450673406588835</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02184478630354801</v>
+        <v>0.02184277289348843</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04420427292151743</v>
+        <v>0.04316300226435273</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02495500029838613</v>
+        <v>0.02457912788608132</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03128917001956389</v>
+        <v>0.0313781853938863</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4901</v>
+        <v>4740</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5157</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23369</v>
+        <v>23045</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3065</v>
+        <v>3016</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23957</v>
+        <v>24314</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15958</v>
+        <v>15943</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1928</v>
+        <v>1959</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20578</v>
+        <v>20715</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51103</v>
+        <v>49767</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13302</v>
+        <v>12896</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>57503</v>
+        <v>57468</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3991</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12234</v>
+        <v>13229</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6899</v>
+        <v>6678</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15884</v>
+        <v>16002</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2903</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4063</v>
+        <v>4272</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10975</v>
+        <v>10852</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26596</v>
+        <v>27104</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20517</v>
+        <v>20868</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38599</v>
+        <v>37075</v>
       </c>
     </row>
     <row r="20">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1500</v>
+        <v>1296</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2411</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5185</v>
+        <v>5989</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7161</v>
+        <v>6850</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9565</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="24">
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1204</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4233</v>
+        <v>4217</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7509</v>
+        <v>8050</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8865</v>
+        <v>8994</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21984</v>
+        <v>20981</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15110</v>
+        <v>15313</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42811</v>
+        <v>43260</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>57682</v>
+        <v>52526</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>40650</v>
+        <v>42885</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>86672</v>
+        <v>85805</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>16773</v>
+        <v>17412</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12771</v>
+        <v>12994</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>35023</v>
+        <v>34670</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>39179</v>
+        <v>38445</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>32187</v>
+        <v>32004</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>63567</v>
+        <v>63680</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>92460</v>
+        <v>95401</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>55906</v>
+        <v>54082</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>158375</v>
+        <v>158361</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>155686</v>
+        <v>152018</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>93034</v>
+        <v>91633</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>226847</v>
+        <v>227493</v>
       </c>
     </row>
     <row r="40">
